--- a/src/views/FileMauExportDanhMuc/KhoaThi.xlsx
+++ b/src/views/FileMauExportDanhMuc/KhoaThi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Nam</t>
+  </si>
+  <si>
+    <t>Khóa thi TN tháng 8</t>
   </si>
 </sst>
 </file>
@@ -155,12 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,13 +581,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45160</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +595,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +623,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,17 +637,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>